--- a/data/air_info/成都-深圳.xlsx
+++ b/data/air_info/成都-深圳.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3676FBA-ADD9-4B82-ADA6-21004881AE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A805FF64-8A1B-4A94-BF61-7A00FB0417A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,24 +33,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
-    <t>行程时间：2 小时 20 分钟</t>
-  </si>
-  <si>
     <t>多彩贵州航空经济舱Airbus A321 (Sharklets)GY 7189</t>
   </si>
   <si>
-    <t>行程时间：2 小时 35 分钟</t>
-  </si>
-  <si>
     <t>成都航空经济舱Airbus A321EU 2217</t>
   </si>
   <si>
     <t>深航经济舱Airbus A320ZH 9436</t>
   </si>
   <si>
-    <t>行程时间：2 小时 30 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A330CA 4337</t>
   </si>
   <si>
@@ -60,15 +51,9 @@
     <t>国航经济舱Boeing 737CA 4329</t>
   </si>
   <si>
-    <t>行程时间：2 小时 45 分钟</t>
-  </si>
-  <si>
     <t>深航经济舱Boeing 737ZH 9410</t>
   </si>
   <si>
-    <t>行程时间：2 小时 25 分钟</t>
-  </si>
-  <si>
     <t>深航经济舱Airbus A330ZH 9416</t>
   </si>
   <si>
@@ -81,27 +66,18 @@
     <t>国航经济舱Airbus A320neoCA 4313</t>
   </si>
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>西藏航空经济舱Airbus A330TV 9901</t>
   </si>
   <si>
     <t>南航经济舱Airbus A320CZ 8478</t>
   </si>
   <si>
-    <t>行程时间：2 小时 40 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A350CA 4311</t>
   </si>
   <si>
     <t>川航经济舱Airbus A3503U 8705</t>
   </si>
   <si>
-    <t>行程时间：3 小时</t>
-  </si>
-  <si>
     <t>深航经济舱Airbus A320ZH 9406</t>
   </si>
   <si>
@@ -117,9 +93,6 @@
     <t>国航经济舱Airbus A321CA 4323</t>
   </si>
   <si>
-    <t>行程时间：2 小时 55 分钟</t>
-  </si>
-  <si>
     <t>深航经济舱Airbus A321ZH 9408</t>
   </si>
   <si>
@@ -174,8 +147,34 @@
     <t>航空信息</t>
   </si>
   <si>
+    <t>2 小时 20 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 35 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 30 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 25 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 40 分钟</t>
+  </si>
+  <si>
+    <t>3 小时</t>
+  </si>
+  <si>
+    <t>2 小时 55 分钟</t>
+  </si>
+  <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -531,7 +530,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -541,29 +540,28 @@
     <col min="4" max="4" width="26.1796875" customWidth="1"/>
     <col min="5" max="5" width="31.08984375" customWidth="1"/>
     <col min="6" max="6" width="49.54296875" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -572,23 +570,22 @@
         <v>0.3125</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>0.40972222222222221</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(1300,2800)</f>
-        <v>1328</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -596,23 +593,22 @@
         <v>0.3298611111111111</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>0.4375</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G30" ca="1" si="0">RANDBETWEEN(1300,2800)</f>
-        <v>1738</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,23 +616,22 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
         <v>0.46180555555555558</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2134</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,23 +639,22 @@
         <v>0.37152777777777779</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
         <v>0.47569444444444442</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1884</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,23 +662,22 @@
         <v>0.47222222222222221</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2">
         <v>0.56944444444444442</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1884</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -692,23 +685,22 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
         <v>0.58333333333333337</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1654</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,23 +708,22 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2">
         <v>0.60763888888888884</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2490</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,23 +731,22 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1926</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,23 +754,22 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D10" s="2">
         <v>0.61805555555555558</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1328</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,23 +777,22 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2">
         <v>0.64236111111111116</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1493</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -812,23 +800,22 @@
         <v>0.5625</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2">
         <v>0.66319444444444442</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>2608</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -836,23 +823,22 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2">
         <v>0.69097222222222221</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1699</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,23 +846,22 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2452</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,23 +869,22 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2">
         <v>0.71527777777777779</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1788</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,23 +892,22 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2">
         <v>0.75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1683</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -932,23 +915,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>2502</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,23 +938,22 @@
         <v>0.6875</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2">
         <v>0.79861111111111116</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>2108</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -980,23 +961,22 @@
         <v>0.6875</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D19" s="2">
         <v>0.79513888888888884</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1920</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1004,23 +984,22 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2">
         <v>0.79861111111111116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1822</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1028,23 +1007,22 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D21" s="2">
         <v>0.83680555555555558</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1458</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1052,23 +1030,22 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2">
         <v>0.89236111111111116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="0"/>
-        <v>2477</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1076,23 +1053,22 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2">
         <v>0.88541666666666663</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="0"/>
-        <v>2514</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,23 +1076,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2">
         <v>0.90277777777777779</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2690</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,23 +1099,22 @@
         <v>0.80555555555555558</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2">
         <v>0.90625</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="0"/>
-        <v>2266</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,23 +1122,22 @@
         <v>0.8125</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2">
         <v>0.91319444444444442</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="0"/>
-        <v>1306</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1172,23 +1145,22 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2">
         <v>0.93055555555555558</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="0"/>
-        <v>2566</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1196,23 +1168,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2">
         <v>0.96875</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2397</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,23 +1191,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D29" s="2">
         <v>0.95138888888888884</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="0"/>
-        <v>2030</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1244,23 +1214,22 @@
         <v>0.875</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2">
         <v>0.97569444444444442</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="0"/>
-        <v>1783</v>
+        <v>2061</v>
       </c>
     </row>
   </sheetData>
